--- a/m.xlsx
+++ b/m.xlsx
@@ -4,30 +4,55 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ref no</t>
   </si>
   <si>
     <t>phone</t>
+  </si>
+  <si>
+    <t>fdwf</t>
+  </si>
+  <si>
+    <t>rfd</t>
+  </si>
+  <si>
+    <t>df3254223</t>
+  </si>
+  <si>
+    <t>fdsgfds</t>
+  </si>
+  <si>
+    <t>sfdsfg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -55,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,45 +463,108 @@
       <c r="A9">
         <v>1</v>
       </c>
+      <c r="B9">
+        <v>324</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
+      <c r="B11">
+        <v>23432</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
+      <c r="B15">
+        <v>32431</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3223432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/m.xlsx
+++ b/m.xlsx
@@ -4,22 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ref no</t>
   </si>
   <si>
     <t>phone</t>
+  </si>
+  <si>
+    <t>vinod</t>
   </si>
 </sst>
 </file>
@@ -363,7 +367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -481,4 +485,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>992304158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/m.xlsx
+++ b/m.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ref no</t>
   </si>
@@ -24,6 +24,12 @@
   </si>
   <si>
     <t>vinod</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>last change</t>
   </si>
 </sst>
 </file>
@@ -365,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,6 +388,16 @@
       </c>
       <c r="B1">
         <v>992304158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
